--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s0_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2854.026172329671</v>
+        <v>855.8219714504733</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008999824523925781</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.55105716355239</v>
+        <v>41.99399897576403</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.56736830694244</v>
+        <v>12.45967556447408</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.752483473055587</v>
+        <v>10.28764803918328</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2222.870000000006</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.4200000000001</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>33.88634790002131</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.187002988238973</v>
+        <v>32.94108823397055</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.12809122220952</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.79148430448686</v>
+        <v>38.12809122220952</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.42779881720021</v>
+        <v>44.79148430448686</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1074,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1088,124 +1088,12 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>197.9849999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1319,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>208.75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1330,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>215.6149999999998</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>211.9599999999998</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1352,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>210.9699999999998</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -1363,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>304.2450000000006</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
@@ -1374,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>318.6150000000006</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
@@ -1385,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>323.3400000000006</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>323.9200000000006</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>321.9200000000006</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1418,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999935</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1429,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999936</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -1440,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1451,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1473,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1484,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1495,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1506,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1517,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1528,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>133.8599999999991</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1539,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>138.7699999999991</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1550,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>146.7699999999991</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1561,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>140.9699999999991</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1572,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>139.9799999999991</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1583,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>304.2450000000006</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -1594,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>318.6150000000006</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -1605,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>323.3400000000006</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1616,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>323.9200000000006</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -1627,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>321.9200000000006</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -1638,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>108.515</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38">
@@ -1649,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>96.92</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>106.645</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
@@ -1671,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>103.745</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41">
@@ -1682,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>100.49</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>204.2450000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1740,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>218.6150000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>223.3400000000006</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1762,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>223.9200000000006</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1773,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>221.9200000000006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.515000000000001</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.644999999999996</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1817,7 +1705,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.745</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1828,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.49</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1796,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2027,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2183,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2194,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2202,10 +2090,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2213,10 +2101,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2224,10 +2112,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2238,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2249,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2257,7 +2145,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2268,7 +2156,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2279,111 +2167,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
